--- a/งานsupport.xlsx
+++ b/งานsupport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66950\Desktop\excel\data ai\Facetax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DCA8FD-A32F-4D86-924B-645F5D43C974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9044BC78-31C0-4393-A79C-D7BB60E67BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29361E4D-C2A4-4AF5-B155-7DE425F2A4EC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="41">
   <si>
     <t>Item</t>
   </si>
@@ -229,10 +229,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57DA8925-9D60-41B5-A91F-20C5D357F05F}" name="Table1" displayName="Table1" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32" xr:uid="{57DA8925-9D60-41B5-A91F-20C5D357F05F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
-    <sortCondition descending="1" ref="C1:C32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57DA8925-9D60-41B5-A91F-20C5D357F05F}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{57DA8925-9D60-41B5-A91F-20C5D357F05F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
+    <sortCondition descending="1" ref="C1:C31"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1B7922C9-2DAB-4031-88DB-C052146D7981}" name="Item"/>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FCF686-FEFE-42C9-B7B2-B5CC43988008}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -701,7 +701,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>1964</v>
@@ -715,13 +715,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C11" s="2">
-        <v>0.49099999999999999</v>
+        <v>0.49075000000000002</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -729,13 +729,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
-        <v>1963</v>
+        <v>1952</v>
       </c>
       <c r="C12" s="2">
-        <v>0.49075000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -743,41 +743,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C13" s="2">
-        <v>0.48799999999999999</v>
+        <v>0.48775000000000002</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C14" s="2">
-        <v>0.48775000000000002</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="C15" s="2">
-        <v>0.48749999999999999</v>
+        <v>0.48675000000000002</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -785,21 +785,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C16" s="2">
-        <v>0.48675000000000002</v>
+        <v>0.48649999999999999</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
         <v>1946</v>
@@ -808,26 +808,26 @@
         <v>0.48649999999999999</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="C18" s="2">
-        <v>0.48649999999999999</v>
+        <v>0.48549999999999999</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1942</v>
@@ -836,54 +836,54 @@
         <v>0.48549999999999999</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="C20" s="2">
-        <v>0.48549999999999999</v>
+        <v>0.48449999999999999</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="C21" s="2">
-        <v>0.48449999999999999</v>
+        <v>0.48375000000000001</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="C22" s="2">
-        <v>0.48375000000000001</v>
+        <v>0.48275000000000001</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <v>1931</v>
@@ -892,18 +892,18 @@
         <v>0.48275000000000001</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="C24" s="2">
-        <v>0.48275000000000001</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -911,41 +911,41 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="C25" s="2">
-        <v>0.48149999999999998</v>
+        <v>0.48075000000000001</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="C26" s="2">
-        <v>0.48075000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="C27" s="2">
-        <v>0.48</v>
+        <v>0.47875000000000001</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -953,27 +953,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C28" s="2">
-        <v>0.47875000000000001</v>
+        <v>0.47849999999999998</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1">
-        <v>1914</v>
+        <v>1906</v>
       </c>
       <c r="C29" s="2">
-        <v>0.47849999999999998</v>
+        <v>0.47649999999999998</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -981,13 +981,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1">
-        <v>1906</v>
+        <v>1883</v>
       </c>
       <c r="C30" s="2">
-        <v>0.47649999999999998</v>
+        <v>0.47075</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -995,29 +995,15 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="C31" s="2">
-        <v>0.47075</v>
+        <v>0.46925</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1877</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.46925</v>
-      </c>
-      <c r="D32">
         <v>2</v>
       </c>
     </row>
@@ -1085,11 +1071,11 @@
         <v>0.56160896130346227</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(Support2!A2, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A2, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP(Support2!B2, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B2, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1111,11 +1097,11 @@
         <v>0.55888324873096451</v>
       </c>
       <c r="F3">
-        <f>VLOOKUP(Support2!A3, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A3, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="G3">
-        <f>VLOOKUP(Support2!B3, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B3, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1137,11 +1123,11 @@
         <v>0.56446700507614223</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(Support2!A4, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A4, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="G4">
-        <f>VLOOKUP(Support2!B4, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B4, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -1163,11 +1149,11 @@
         <v>0.56059063136456211</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(Support2!A5, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A5, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="G5">
-        <f>VLOOKUP(Support2!B5, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B5, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1189,11 +1175,11 @@
         <v>0.56771894093686359</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(Support2!A6, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A6, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="G6">
-        <f>VLOOKUP(Support2!B6, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B6, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1215,11 +1201,11 @@
         <v>0.55803345159655349</v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(Support2!A7, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A7, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G7">
-        <f>VLOOKUP(Support2!B7, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B7, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1241,11 +1227,11 @@
         <v>0.55854029396857574</v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(Support2!A8, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A8, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G8">
-        <f>VLOOKUP(Support2!B8, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B8, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -1267,11 +1253,11 @@
         <v>0.55904713634059799</v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(Support2!A9, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A9, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G9">
-        <f>VLOOKUP(Support2!B9, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B9, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -1293,11 +1279,11 @@
         <v>0.56107450582868723</v>
       </c>
       <c r="F10">
-        <f>VLOOKUP(Support2!A10, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A10, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G10">
-        <f>VLOOKUP(Support2!B10, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B10, Support1!$A$1:$D$31, 4, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1319,11 +1305,11 @@
         <v>0.55371485943775101</v>
       </c>
       <c r="F11">
-        <f>VLOOKUP(Support2!A11, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A11, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G11">
-        <f>VLOOKUP(Support2!B11, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B11, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
     </row>
@@ -1345,11 +1331,11 @@
         <v>0.55220883534136556</v>
       </c>
       <c r="F12">
-        <f>VLOOKUP(Support2!A12, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A12, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G12">
-        <f>VLOOKUP(Support2!B12, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B12, Support1!$A$1:$D$31, 4, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -1371,11 +1357,11 @@
         <v>0.55371485943775101</v>
       </c>
       <c r="F13">
-        <f>VLOOKUP(Support2!A13, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A13, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G13">
-        <f>VLOOKUP(Support2!B13, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B13, Support1!$A$1:$D$31, 4, 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -1397,11 +1383,11 @@
         <v>0.55522088353413657</v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(Support2!A14, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A14, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G14">
-        <f>VLOOKUP(Support2!B14, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B14, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -1423,11 +1409,11 @@
         <v>0.55220883534136556</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(Support2!A15, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A15, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G15">
-        <f>VLOOKUP(Support2!B15, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B15, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -1449,11 +1435,11 @@
         <v>0.55522088353413657</v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(Support2!A16, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A16, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="G16">
-        <f>VLOOKUP(Support2!B16, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B16, Support1!$A$1:$D$31, 4, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1475,11 +1461,11 @@
         <v>0.56352459016393452</v>
       </c>
       <c r="F17">
-        <f>VLOOKUP(Support2!A17, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!A17, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="G17">
-        <f>VLOOKUP(Support2!B17, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support2!B17, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -1553,15 +1539,15 @@
         <v>0.59017857142857144</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP(Support3!A2, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A2, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H2">
-        <f>VLOOKUP(Support3!B2, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B2, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="I2">
-        <f>VLOOKUP(Support3!A2, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A2, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1586,15 +1572,15 @@
         <v>0.59642857142857142</v>
       </c>
       <c r="G3">
-        <f>VLOOKUP(Support3!A3, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A3, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H3">
-        <f>VLOOKUP(Support3!B3, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B3, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="I3">
-        <f>VLOOKUP(Support3!A3, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A3, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1619,15 +1605,15 @@
         <v>0.5892857142857143</v>
       </c>
       <c r="G4">
-        <f>VLOOKUP(Support3!A4, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A4, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H4">
-        <f>VLOOKUP(Support3!B4, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B4, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="I4">
-        <f>VLOOKUP(Support3!A4, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A4, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1652,15 +1638,15 @@
         <v>0.59910714285714284</v>
       </c>
       <c r="G5">
-        <f>VLOOKUP(Support3!A5, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A5, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H5">
-        <f>VLOOKUP(Support3!B5, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B5, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="I5">
-        <f>VLOOKUP(Support3!A5, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A5, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1685,15 +1671,15 @@
         <v>0.60624999999999996</v>
       </c>
       <c r="G6">
-        <f>VLOOKUP(Support3!A6, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A6, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H6">
-        <f>VLOOKUP(Support3!B6, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B6, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="I6">
-        <f>VLOOKUP(Support3!A6, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A6, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1718,15 +1704,15 @@
         <v>0.5982142857142857</v>
       </c>
       <c r="G7">
-        <f>VLOOKUP(Support3!A7, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A7, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H7">
-        <f>VLOOKUP(Support3!B7, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B7, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I7">
-        <f>VLOOKUP(Support3!A7, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A7, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1751,15 +1737,15 @@
         <v>0.60178571428571426</v>
       </c>
       <c r="G8">
-        <f>VLOOKUP(Support3!A8, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A8, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H8">
-        <f>VLOOKUP(Support3!B8, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B8, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I8">
-        <f>VLOOKUP(Support3!A8, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A8, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1784,15 +1770,15 @@
         <v>0.59642857142857142</v>
       </c>
       <c r="G9">
-        <f>VLOOKUP(Support3!A9, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A9, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H9">
-        <f>VLOOKUP(Support3!B9, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B9, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I9">
-        <f>VLOOKUP(Support3!A9, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A9, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1817,15 +1803,15 @@
         <v>0.59196428571428572</v>
       </c>
       <c r="G10">
-        <f>VLOOKUP(Support3!A10, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A10, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H10">
-        <f>VLOOKUP(Support3!B10, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B10, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I10">
-        <f>VLOOKUP(Support3!A10, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A10, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1850,15 +1836,15 @@
         <v>0.59017857142857144</v>
       </c>
       <c r="G11">
-        <f>VLOOKUP(Support3!A11, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A11, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H11">
-        <f>VLOOKUP(Support3!B11, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B11, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I11">
-        <f>VLOOKUP(Support3!A11, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A11, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1883,15 +1869,15 @@
         <v>0.59732142857142856</v>
       </c>
       <c r="G12">
-        <f>VLOOKUP(Support3!A12, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A12, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H12">
-        <f>VLOOKUP(Support3!B12, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B12, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I12">
-        <f>VLOOKUP(Support3!A12, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A12, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1916,15 +1902,15 @@
         <v>0.60178571428571426</v>
       </c>
       <c r="G13">
-        <f>VLOOKUP(Support3!A13, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A13, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H13">
-        <f>VLOOKUP(Support3!B13, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B13, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I13">
-        <f>VLOOKUP(Support3!A13, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A13, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1949,15 +1935,15 @@
         <v>0.60624999999999996</v>
       </c>
       <c r="G14">
-        <f>VLOOKUP(Support3!A14, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A14, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H14">
-        <f>VLOOKUP(Support3!B14, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B14, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I14">
-        <f>VLOOKUP(Support3!A14, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A14, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -1982,15 +1968,15 @@
         <v>0.59642857142857142</v>
       </c>
       <c r="G15">
-        <f>VLOOKUP(Support3!A15, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A15, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H15">
-        <f>VLOOKUP(Support3!B15, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B15, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I15">
-        <f>VLOOKUP(Support3!A15, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A15, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2015,15 +2001,15 @@
         <v>0.59017857142857144</v>
       </c>
       <c r="G16">
-        <f>VLOOKUP(Support3!A16, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A16, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H16">
-        <f>VLOOKUP(Support3!B16, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B16, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I16">
-        <f>VLOOKUP(Support3!A16, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A16, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2048,15 +2034,15 @@
         <v>0.59017857142857144</v>
       </c>
       <c r="G17">
-        <f>VLOOKUP(Support3!A17, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A17, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H17">
-        <f>VLOOKUP(Support3!B17, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B17, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I17">
-        <f>VLOOKUP(Support3!A17, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A17, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2081,15 +2067,15 @@
         <v>0.59375</v>
       </c>
       <c r="G18">
-        <f>VLOOKUP(Support3!A18, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A18, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H18">
-        <f>VLOOKUP(Support3!B18, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B18, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I18">
-        <f>VLOOKUP(Support3!A18, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A18, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2114,15 +2100,15 @@
         <v>0.59375</v>
       </c>
       <c r="G19">
-        <f>VLOOKUP(Support3!A19, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A19, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H19">
-        <f>VLOOKUP(Support3!B19, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B19, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="I19">
-        <f>VLOOKUP(Support3!A19, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A19, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2147,15 +2133,15 @@
         <v>0.59732142857142856</v>
       </c>
       <c r="G20">
-        <f>VLOOKUP(Support3!A20, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A20, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H20">
-        <f>VLOOKUP(Support3!B20, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B20, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="I20">
-        <f>VLOOKUP(Support3!A20, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A20, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2180,15 +2166,15 @@
         <v>0.5982142857142857</v>
       </c>
       <c r="G21">
-        <f>VLOOKUP(Support3!A21, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A21, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H21">
-        <f>VLOOKUP(Support3!B21, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B21, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="I21">
-        <f>VLOOKUP(Support3!A21, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A21, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2213,15 +2199,15 @@
         <v>0.6</v>
       </c>
       <c r="G22">
-        <f>VLOOKUP(Support3!A22, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A22, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H22">
-        <f>VLOOKUP(Support3!B22, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B22, Support1!$A$1:$D$31, 4, 0)</f>
         <v>1</v>
       </c>
       <c r="I22">
-        <f>VLOOKUP(Support3!A22, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A22, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2246,15 +2232,15 @@
         <v>0.59642857142857142</v>
       </c>
       <c r="G23">
-        <f>VLOOKUP(Support3!A23, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A23, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H23">
-        <f>VLOOKUP(Support3!B23, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B23, Support1!$A$1:$D$31, 4, 0)</f>
         <v>1</v>
       </c>
       <c r="I23">
-        <f>VLOOKUP(Support3!A23, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A23, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2279,15 +2265,15 @@
         <v>0.60178571428571426</v>
       </c>
       <c r="G24">
-        <f>VLOOKUP(Support3!A24, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A24, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H24">
-        <f>VLOOKUP(Support3!B24, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B24, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I24">
-        <f>VLOOKUP(Support3!A24, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A24, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2312,15 +2298,15 @@
         <v>0.59285714285714286</v>
       </c>
       <c r="G25">
-        <f>VLOOKUP(Support3!A25, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A25, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H25">
-        <f>VLOOKUP(Support3!B25, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B25, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I25">
-        <f>VLOOKUP(Support3!A25, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A25, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2345,15 +2331,15 @@
         <v>0.60178571428571426</v>
       </c>
       <c r="G26">
-        <f>VLOOKUP(Support3!A26, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A26, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H26">
-        <f>VLOOKUP(Support3!B26, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B26, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I26">
-        <f>VLOOKUP(Support3!A26, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A26, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2378,15 +2364,15 @@
         <v>0.61607142857142849</v>
       </c>
       <c r="G27">
-        <f>VLOOKUP(Support3!A27, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A27, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H27">
-        <f>VLOOKUP(Support3!B27, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B27, Support1!$A$1:$D$31, 4, 0)</f>
         <v>5</v>
       </c>
       <c r="I27">
-        <f>VLOOKUP(Support3!A27, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A27, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2411,15 +2397,15 @@
         <v>0.5892857142857143</v>
       </c>
       <c r="G28">
-        <f>VLOOKUP(Support3!A28, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A28, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H28">
-        <f>VLOOKUP(Support3!B28, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B28, Support1!$A$1:$D$31, 4, 0)</f>
         <v>5</v>
       </c>
       <c r="I28">
-        <f>VLOOKUP(Support3!A28, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A28, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2444,15 +2430,15 @@
         <v>0.60446428571428568</v>
       </c>
       <c r="G29">
-        <f>VLOOKUP(Support3!A29, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A29, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H29">
-        <f>VLOOKUP(Support3!B29, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B29, Support1!$A$1:$D$31, 4, 0)</f>
         <v>5</v>
       </c>
       <c r="I29">
-        <f>VLOOKUP(Support3!A29, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A29, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2477,15 +2463,15 @@
         <v>0.59196428571428572</v>
       </c>
       <c r="G30">
-        <f>VLOOKUP(Support3!A30, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A30, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H30">
-        <f>VLOOKUP(Support3!B30, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B30, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I30">
-        <f>VLOOKUP(Support3!A30, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A30, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2510,15 +2496,15 @@
         <v>0.60178571428571426</v>
       </c>
       <c r="G31">
-        <f>VLOOKUP(Support3!A31, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A31, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="H31">
-        <f>VLOOKUP(Support3!B31, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B31, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I31">
-        <f>VLOOKUP(Support3!A31, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A31, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -2543,15 +2529,15 @@
         <v>0.59464285714285714</v>
       </c>
       <c r="G32">
-        <f>VLOOKUP(Support3!A32, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A32, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="H32">
-        <f>VLOOKUP(Support3!B32, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B32, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I32">
-        <f>VLOOKUP(Support3!A32, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A32, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -2576,15 +2562,15 @@
         <v>0.59464285714285714</v>
       </c>
       <c r="G33">
-        <f>VLOOKUP(Support3!A33, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A33, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="H33">
-        <f>VLOOKUP(Support3!B33, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B33, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I33">
-        <f>VLOOKUP(Support3!A33, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A33, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -2609,15 +2595,15 @@
         <v>0.59285714285714286</v>
       </c>
       <c r="G34">
-        <f>VLOOKUP(Support3!A34, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A34, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="H34">
-        <f>VLOOKUP(Support3!B34, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B34, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="I34">
-        <f>VLOOKUP(Support3!A34, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A34, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -2642,15 +2628,15 @@
         <v>0.59107142857142858</v>
       </c>
       <c r="G35">
-        <f>VLOOKUP(Support3!A35, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A35, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
       <c r="H35">
-        <f>VLOOKUP(Support3!B35, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B35, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="I35">
-        <f>VLOOKUP(Support3!A35, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A35, Support1!$A$1:$D$31, 4, 0)</f>
         <v>2</v>
       </c>
     </row>
@@ -2675,15 +2661,15 @@
         <v>0.60089285714285712</v>
       </c>
       <c r="G36">
-        <f>VLOOKUP(Support3!A36, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A36, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H36">
-        <f>VLOOKUP(Support3!B36, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B36, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I36">
-        <f>VLOOKUP(Support3!A36, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A36, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2708,15 +2694,15 @@
         <v>0.59910714285714284</v>
       </c>
       <c r="G37">
-        <f>VLOOKUP(Support3!A37, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A37, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H37">
-        <f>VLOOKUP(Support3!B37, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B37, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I37">
-        <f>VLOOKUP(Support3!A37, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A37, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2741,15 +2727,15 @@
         <v>0.59107142857142858</v>
       </c>
       <c r="G38">
-        <f>VLOOKUP(Support3!A38, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A38, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H38">
-        <f>VLOOKUP(Support3!B38, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B38, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I38">
-        <f>VLOOKUP(Support3!A38, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A38, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2774,15 +2760,15 @@
         <v>0.60089285714285712</v>
       </c>
       <c r="G39">
-        <f>VLOOKUP(Support3!A39, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A39, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H39">
-        <f>VLOOKUP(Support3!B39, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B39, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I39">
-        <f>VLOOKUP(Support3!A39, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A39, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2807,15 +2793,15 @@
         <v>0.60892857142857137</v>
       </c>
       <c r="G40">
-        <f>VLOOKUP(Support3!A40, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A40, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H40">
-        <f>VLOOKUP(Support3!B40, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B40, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I40">
-        <f>VLOOKUP(Support3!A40, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A40, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2840,15 +2826,15 @@
         <v>0.5892857142857143</v>
       </c>
       <c r="G41">
-        <f>VLOOKUP(Support3!A41, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A41, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H41">
-        <f>VLOOKUP(Support3!B41, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B41, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I41">
-        <f>VLOOKUP(Support3!A41, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A41, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2873,15 +2859,15 @@
         <v>0.5892857142857143</v>
       </c>
       <c r="G42">
-        <f>VLOOKUP(Support3!A42, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A42, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H42">
-        <f>VLOOKUP(Support3!B42, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B42, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I42">
-        <f>VLOOKUP(Support3!A42, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A42, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2906,15 +2892,15 @@
         <v>0.59464285714285714</v>
       </c>
       <c r="G43">
-        <f>VLOOKUP(Support3!A43, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A43, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H43">
-        <f>VLOOKUP(Support3!B43, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B43, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I43">
-        <f>VLOOKUP(Support3!A43, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A43, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2939,15 +2925,15 @@
         <v>0.60446428571428568</v>
       </c>
       <c r="G44">
-        <f>VLOOKUP(Support3!A44, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A44, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H44">
-        <f>VLOOKUP(Support3!B44, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B44, Support1!$A$1:$D$31, 4, 0)</f>
         <v>3</v>
       </c>
       <c r="I44">
-        <f>VLOOKUP(Support3!A44, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A44, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -2972,15 +2958,15 @@
         <v>0.59375</v>
       </c>
       <c r="G45">
-        <f>VLOOKUP(Support3!A45, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A45, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H45">
-        <f>VLOOKUP(Support3!B45, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B45, Support1!$A$1:$D$31, 4, 0)</f>
         <v>1</v>
       </c>
       <c r="I45">
-        <f>VLOOKUP(Support3!A45, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A45, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -3005,15 +2991,15 @@
         <v>0.59196428571428572</v>
       </c>
       <c r="G46">
-        <f>VLOOKUP(Support3!A46, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A46, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
       <c r="H46">
-        <f>VLOOKUP(Support3!B46, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!B46, Support1!$A$1:$D$31, 4, 0)</f>
         <v>1</v>
       </c>
       <c r="I46">
-        <f>VLOOKUP(Support3!A46, Support1!$A$1:$D$32, 4, 0)</f>
+        <f>VLOOKUP(Support3!A46, Support1!$A$1:$D$31, 4, 0)</f>
         <v>4</v>
       </c>
     </row>
@@ -3031,6 +3017,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x010100EAA1A0EF8A923845B6D186F37CC68F88" ma:contentTypeVersion="15" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="726b4d45add7e0592c286296e13fef4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c18c2a6b-dbd0-43af-b80a-9f21605994d3" xmlns:ns4="0e0d6a3b-bacf-4097-9f20-f2b3736b6d54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="925b6894c500d47af481d2c5cffdce40" ns3:_="" ns4:_="">
     <xsd:import namespace="c18c2a6b-dbd0-43af-b80a-9f21605994d3"/>
@@ -3263,15 +3258,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE046575-1F8D-473F-ABCA-D15DA7AEA050}">
   <ds:schemaRefs>
@@ -3290,6 +3276,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0746F37F-110C-4D02-A697-83A9F4899D38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3F91E0A-1C8A-486C-9877-FC07D28D22F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3306,12 +3300,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0746F37F-110C-4D02-A697-83A9F4899D38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>